--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.816805333333333</v>
+        <v>3.545238666666667</v>
       </c>
       <c r="H2">
-        <v>11.450416</v>
+        <v>10.635716</v>
       </c>
       <c r="I2">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="J2">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5101166666666667</v>
+        <v>0.323322</v>
       </c>
       <c r="N2">
-        <v>1.53035</v>
+        <v>0.969966</v>
       </c>
       <c r="O2">
-        <v>0.1953985608420697</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="P2">
-        <v>0.1953985608420696</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="Q2">
-        <v>1.947016013955555</v>
+        <v>1.146253656184</v>
       </c>
       <c r="R2">
-        <v>17.5231441256</v>
+        <v>10.316282905656</v>
       </c>
       <c r="S2">
-        <v>0.01020349776315136</v>
+        <v>0.003436191043113514</v>
       </c>
       <c r="T2">
-        <v>0.01020349776315136</v>
+        <v>0.003436191043113513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.816805333333333</v>
+        <v>3.545238666666667</v>
       </c>
       <c r="H3">
-        <v>11.450416</v>
+        <v>10.635716</v>
       </c>
       <c r="I3">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="J3">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.425121</v>
       </c>
       <c r="O3">
-        <v>0.4373272219491949</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="P3">
-        <v>0.437327221949195</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="Q3">
-        <v>4.357673366704</v>
+        <v>4.047623802404</v>
       </c>
       <c r="R3">
-        <v>39.219060300336</v>
+        <v>36.428614221636</v>
       </c>
       <c r="S3">
-        <v>0.02283674614436092</v>
+        <v>0.01213379654728104</v>
       </c>
       <c r="T3">
-        <v>0.02283674614436093</v>
+        <v>0.01213379654728104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.816805333333333</v>
+        <v>3.545238666666667</v>
       </c>
       <c r="H4">
-        <v>11.450416</v>
+        <v>10.635716</v>
       </c>
       <c r="I4">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="J4">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.304788</v>
+        <v>0.6218673333333333</v>
       </c>
       <c r="N4">
-        <v>0.914364</v>
+        <v>1.865602</v>
       </c>
       <c r="O4">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="P4">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="Q4">
-        <v>1.163316463936</v>
+        <v>2.204668115670222</v>
       </c>
       <c r="R4">
-        <v>10.469848175424</v>
+        <v>19.842013041032</v>
       </c>
       <c r="S4">
-        <v>0.006096455731503334</v>
+        <v>0.006609061433508655</v>
       </c>
       <c r="T4">
-        <v>0.006096455731503333</v>
+        <v>0.006609061433508655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.816805333333333</v>
+        <v>3.545238666666667</v>
       </c>
       <c r="H5">
-        <v>11.450416</v>
+        <v>10.635716</v>
       </c>
       <c r="I5">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="J5">
-        <v>0.05221889925483282</v>
+        <v>0.0286068503401377</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6540353333333334</v>
+        <v>0.604812</v>
       </c>
       <c r="N5">
-        <v>1.962106</v>
+        <v>1.814436</v>
       </c>
       <c r="O5">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="P5">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="Q5">
-        <v>2.496325548455111</v>
+        <v>2.144202888464</v>
       </c>
       <c r="R5">
-        <v>22.466929936096</v>
+        <v>19.297825996176</v>
       </c>
       <c r="S5">
-        <v>0.01308219961581721</v>
+        <v>0.006427801316234497</v>
       </c>
       <c r="T5">
-        <v>0.01308219961581721</v>
+        <v>0.006427801316234497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>19.254148</v>
       </c>
       <c r="I6">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="J6">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5101166666666667</v>
+        <v>0.323322</v>
       </c>
       <c r="N6">
-        <v>1.53035</v>
+        <v>0.969966</v>
       </c>
       <c r="O6">
-        <v>0.1953985608420697</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="P6">
-        <v>0.1953985608420696</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="Q6">
-        <v>3.273953932422222</v>
+        <v>2.075096546552</v>
       </c>
       <c r="R6">
-        <v>29.4655853918</v>
+        <v>18.675868918968</v>
       </c>
       <c r="S6">
-        <v>0.0171574252017905</v>
+        <v>0.006220637228408691</v>
       </c>
       <c r="T6">
-        <v>0.0171574252017905</v>
+        <v>0.00622063722840869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.254148</v>
       </c>
       <c r="I7">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="J7">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.425121</v>
       </c>
       <c r="O7">
-        <v>0.4373272219491949</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="P7">
-        <v>0.437327221949195</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="Q7">
         <v>7.327531850212</v>
@@ -883,10 +883,10 @@
         <v>65.947786651908</v>
       </c>
       <c r="S7">
-        <v>0.03840053410303649</v>
+        <v>0.02196616706606665</v>
       </c>
       <c r="T7">
-        <v>0.03840053410303649</v>
+        <v>0.02196616706606665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>19.254148</v>
       </c>
       <c r="I8">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="J8">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.304788</v>
+        <v>0.6218673333333333</v>
       </c>
       <c r="N8">
-        <v>0.914364</v>
+        <v>1.865602</v>
       </c>
       <c r="O8">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="P8">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="Q8">
-        <v>1.956144420208</v>
+        <v>3.991175224121778</v>
       </c>
       <c r="R8">
-        <v>17.605299781872</v>
+        <v>35.920577017096</v>
       </c>
       <c r="S8">
-        <v>0.01025133592786616</v>
+        <v>0.01196457737136529</v>
       </c>
       <c r="T8">
-        <v>0.01025133592786615</v>
+        <v>0.01196457737136529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>19.254148</v>
       </c>
       <c r="I9">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="J9">
-        <v>0.08780732635824244</v>
+        <v>0.05178781854111765</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.6540353333333334</v>
+        <v>0.604812</v>
       </c>
       <c r="N9">
-        <v>1.962106</v>
+        <v>1.814436</v>
       </c>
       <c r="O9">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="P9">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="Q9">
-        <v>4.197631035076445</v>
+        <v>3.881713253392</v>
       </c>
       <c r="R9">
-        <v>37.778679315688</v>
+        <v>34.935419280528</v>
       </c>
       <c r="S9">
-        <v>0.02199803112554929</v>
+        <v>0.01163643687527702</v>
       </c>
       <c r="T9">
-        <v>0.02199803112554929</v>
+        <v>0.01163643687527702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.314582</v>
+      </c>
+      <c r="H10">
+        <v>0.943746</v>
+      </c>
+      <c r="I10">
+        <v>0.002538390511847401</v>
+      </c>
+      <c r="J10">
+        <v>0.002538390511847401</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.1333046666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.399914</v>
-      </c>
-      <c r="I10">
-        <v>0.001823782548738597</v>
-      </c>
-      <c r="J10">
-        <v>0.001823782548738597</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M10">
-        <v>0.5101166666666667</v>
+        <v>0.323322</v>
       </c>
       <c r="N10">
-        <v>1.53035</v>
+        <v>0.969966</v>
       </c>
       <c r="O10">
-        <v>0.1953985608420697</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="P10">
-        <v>0.1953985608420696</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="Q10">
-        <v>0.0680009322111111</v>
+        <v>0.101711281404</v>
       </c>
       <c r="R10">
-        <v>0.6120083898999999</v>
+        <v>0.915401532636</v>
       </c>
       <c r="S10">
-        <v>0.0003563644853124037</v>
+        <v>0.0003049058053237042</v>
       </c>
       <c r="T10">
-        <v>0.0003563644853124037</v>
+        <v>0.0003049058053237041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1333046666666667</v>
+        <v>0.314582</v>
       </c>
       <c r="H11">
-        <v>0.399914</v>
+        <v>0.943746</v>
       </c>
       <c r="I11">
-        <v>0.001823782548738597</v>
+        <v>0.002538390511847401</v>
       </c>
       <c r="J11">
-        <v>0.001823782548738597</v>
+        <v>0.002538390511847401</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.425121</v>
       </c>
       <c r="O11">
-        <v>0.4373272219491949</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="P11">
-        <v>0.437327221949195</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="Q11">
-        <v>0.152194871066</v>
+        <v>0.359160471474</v>
       </c>
       <c r="R11">
-        <v>1.369753839594</v>
+        <v>3.232444243266</v>
       </c>
       <c r="S11">
-        <v>0.0007975897554792729</v>
+        <v>0.001076676168892653</v>
       </c>
       <c r="T11">
-        <v>0.0007975897554792731</v>
+        <v>0.001076676168892653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1333046666666667</v>
+        <v>0.314582</v>
       </c>
       <c r="H12">
-        <v>0.399914</v>
+        <v>0.943746</v>
       </c>
       <c r="I12">
-        <v>0.001823782548738597</v>
+        <v>0.002538390511847401</v>
       </c>
       <c r="J12">
-        <v>0.001823782548738597</v>
+        <v>0.002538390511847401</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.304788</v>
+        <v>0.6218673333333333</v>
       </c>
       <c r="N12">
-        <v>0.914364</v>
+        <v>1.865602</v>
       </c>
       <c r="O12">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="P12">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="Q12">
-        <v>0.040629662744</v>
+        <v>0.1956282694546667</v>
       </c>
       <c r="R12">
-        <v>0.365666964696</v>
+        <v>1.760654425092</v>
       </c>
       <c r="S12">
-        <v>0.0002129230935721833</v>
+        <v>0.0005864462055613424</v>
       </c>
       <c r="T12">
-        <v>0.0002129230935721833</v>
+        <v>0.0005864462055613424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1333046666666667</v>
+        <v>0.314582</v>
       </c>
       <c r="H13">
-        <v>0.399914</v>
+        <v>0.943746</v>
       </c>
       <c r="I13">
-        <v>0.001823782548738597</v>
+        <v>0.002538390511847401</v>
       </c>
       <c r="J13">
-        <v>0.001823782548738597</v>
+        <v>0.002538390511847401</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.6540353333333334</v>
+        <v>0.604812</v>
       </c>
       <c r="N13">
-        <v>1.962106</v>
+        <v>1.814436</v>
       </c>
       <c r="O13">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="P13">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="Q13">
-        <v>0.08718596209822223</v>
+        <v>0.190262968584</v>
       </c>
       <c r="R13">
-        <v>0.784673658884</v>
+        <v>1.712366717256</v>
       </c>
       <c r="S13">
-        <v>0.0004569052143747373</v>
+        <v>0.0005703623320697019</v>
       </c>
       <c r="T13">
-        <v>0.0004569052143747373</v>
+        <v>0.0005703623320697019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.72425333333333</v>
+        <v>113.65184</v>
       </c>
       <c r="H14">
-        <v>188.17276</v>
+        <v>340.95552</v>
       </c>
       <c r="I14">
-        <v>0.8581499918381862</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="J14">
-        <v>0.8581499918381861</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.5101166666666667</v>
+        <v>0.323322</v>
       </c>
       <c r="N14">
-        <v>1.53035</v>
+        <v>0.969966</v>
       </c>
       <c r="O14">
-        <v>0.1953985608420697</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="P14">
-        <v>0.1953985608420696</v>
+        <v>0.1201177690747821</v>
       </c>
       <c r="Q14">
-        <v>31.99668702955555</v>
+        <v>36.74614021248</v>
       </c>
       <c r="R14">
-        <v>287.9701832659999</v>
+        <v>330.71526191232</v>
       </c>
       <c r="S14">
-        <v>0.1676812733918154</v>
+        <v>0.1101560349979362</v>
       </c>
       <c r="T14">
-        <v>0.1676812733918153</v>
+        <v>0.1101560349979362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.72425333333333</v>
+        <v>113.65184</v>
       </c>
       <c r="H15">
-        <v>188.17276</v>
+        <v>340.95552</v>
       </c>
       <c r="I15">
-        <v>0.8581499918381862</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="J15">
-        <v>0.8581499918381861</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.425121</v>
       </c>
       <c r="O15">
-        <v>0.4373272219491949</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="P15">
-        <v>0.437327221949195</v>
+        <v>0.4241570254330428</v>
       </c>
       <c r="Q15">
-        <v>71.61271910044</v>
+        <v>129.75710129088</v>
       </c>
       <c r="R15">
-        <v>644.51447190396</v>
+        <v>1167.81391161792</v>
       </c>
       <c r="S15">
-        <v>0.3752923519463183</v>
+        <v>0.3889803856508025</v>
       </c>
       <c r="T15">
-        <v>0.3752923519463183</v>
+        <v>0.3889803856508025</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.72425333333333</v>
+        <v>113.65184</v>
       </c>
       <c r="H16">
-        <v>188.17276</v>
+        <v>340.95552</v>
       </c>
       <c r="I16">
-        <v>0.8581499918381862</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="J16">
-        <v>0.8581499918381861</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.304788</v>
+        <v>0.6218673333333333</v>
       </c>
       <c r="N16">
-        <v>0.914364</v>
+        <v>1.865602</v>
       </c>
       <c r="O16">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="P16">
-        <v>0.1167480704974667</v>
+        <v>0.2310307270785282</v>
       </c>
       <c r="Q16">
-        <v>19.11759972496</v>
+        <v>70.67636666922667</v>
       </c>
       <c r="R16">
-        <v>172.05839752464</v>
+        <v>636.0873000230399</v>
       </c>
       <c r="S16">
-        <v>0.100187355744525</v>
+        <v>0.2118706420680929</v>
       </c>
       <c r="T16">
-        <v>0.100187355744525</v>
+        <v>0.2118706420680929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>62.72425333333333</v>
+        <v>113.65184</v>
       </c>
       <c r="H17">
-        <v>188.17276</v>
+        <v>340.95552</v>
       </c>
       <c r="I17">
-        <v>0.8581499918381862</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="J17">
-        <v>0.8581499918381861</v>
+        <v>0.9170669406068972</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.6540353333333334</v>
+        <v>0.604812</v>
       </c>
       <c r="N17">
-        <v>1.962106</v>
+        <v>1.814436</v>
       </c>
       <c r="O17">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="P17">
-        <v>0.2505261467112687</v>
+        <v>0.2246944784136469</v>
       </c>
       <c r="Q17">
-        <v>41.02387793695112</v>
+        <v>68.73799665407999</v>
       </c>
       <c r="R17">
-        <v>369.21490143256</v>
+        <v>618.6419698867201</v>
       </c>
       <c r="S17">
-        <v>0.2149890107555274</v>
+        <v>0.2060598778900656</v>
       </c>
       <c r="T17">
-        <v>0.2149890107555274</v>
+        <v>0.2060598778900656</v>
       </c>
     </row>
   </sheetData>
